--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.49593353969124</v>
+        <v>7.079689000000001</v>
       </c>
       <c r="H2">
-        <v>4.49593353969124</v>
+        <v>21.239067</v>
       </c>
       <c r="I2">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="J2">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.49414631704546</v>
+        <v>0.09912533333333333</v>
       </c>
       <c r="N2">
-        <v>1.49414631704546</v>
+        <v>0.297376</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04204777601064202</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04204777601064202</v>
       </c>
       <c r="Q2">
-        <v>6.717582540010826</v>
+        <v>0.7017765320213334</v>
       </c>
       <c r="R2">
-        <v>6.717582540010826</v>
+        <v>6.315988788192</v>
       </c>
       <c r="S2">
-        <v>0.3970958111020147</v>
+        <v>0.02116506790023655</v>
       </c>
       <c r="T2">
-        <v>0.3970958111020147</v>
+        <v>0.02116506790023655</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.02018462565816</v>
+        <v>7.079689000000001</v>
       </c>
       <c r="H3">
-        <v>4.02018462565816</v>
+        <v>21.239067</v>
       </c>
       <c r="I3">
-        <v>0.3550760838905127</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="J3">
-        <v>0.3550760838905127</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.49414631704546</v>
+        <v>0.4583163333333333</v>
       </c>
       <c r="N3">
-        <v>1.49414631704546</v>
+        <v>1.374949</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1944122847104549</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1944122847104549</v>
       </c>
       <c r="Q3">
-        <v>6.006744052269922</v>
+        <v>3.244737103620334</v>
       </c>
       <c r="R3">
-        <v>6.006744052269922</v>
+        <v>29.202633932583</v>
       </c>
       <c r="S3">
-        <v>0.3550760838905127</v>
+        <v>0.0978589023470702</v>
       </c>
       <c r="T3">
-        <v>0.3550760838905127</v>
+        <v>0.09785890234707022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.408000613680069</v>
+        <v>7.079689000000001</v>
       </c>
       <c r="H4">
-        <v>0.408000613680069</v>
+        <v>21.239067</v>
       </c>
       <c r="I4">
-        <v>0.03603597188194495</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="J4">
-        <v>0.03603597188194495</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.49414631704546</v>
+        <v>1.800003666666667</v>
       </c>
       <c r="N4">
-        <v>1.49414631704546</v>
+        <v>5.400011</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.763539939278903</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7635399392789031</v>
       </c>
       <c r="Q4">
-        <v>0.6096126142823627</v>
+        <v>12.74346615885967</v>
       </c>
       <c r="R4">
-        <v>0.6096126142823627</v>
+        <v>114.691195429737</v>
       </c>
       <c r="S4">
-        <v>0.03603597188194495</v>
+        <v>0.3843336364636833</v>
       </c>
       <c r="T4">
-        <v>0.03603597188194495</v>
+        <v>0.3843336364636834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,551 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.058683666666667</v>
+      </c>
+      <c r="H5">
+        <v>12.176051</v>
+      </c>
+      <c r="I5">
+        <v>0.2885676612136944</v>
+      </c>
+      <c r="J5">
+        <v>0.2885676612136945</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.09912533333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.297376</v>
+      </c>
+      <c r="O5">
+        <v>0.04204777601064202</v>
+      </c>
+      <c r="P5">
+        <v>0.04204777601064202</v>
+      </c>
+      <c r="Q5">
+        <v>0.4023183713528889</v>
+      </c>
+      <c r="R5">
+        <v>3.620865342176</v>
+      </c>
+      <c r="S5">
+        <v>0.01213362838262826</v>
+      </c>
+      <c r="T5">
+        <v>0.01213362838262826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.058683666666667</v>
+      </c>
+      <c r="H6">
+        <v>12.176051</v>
+      </c>
+      <c r="I6">
+        <v>0.2885676612136944</v>
+      </c>
+      <c r="J6">
+        <v>0.2885676612136945</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.4583163333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.374949</v>
+      </c>
+      <c r="O6">
+        <v>0.1944122847104549</v>
+      </c>
+      <c r="P6">
+        <v>0.1944122847104549</v>
+      </c>
+      <c r="Q6">
+        <v>1.860161016266556</v>
+      </c>
+      <c r="R6">
+        <v>16.741449146399</v>
+      </c>
+      <c r="S6">
+        <v>0.05610109831010686</v>
+      </c>
+      <c r="T6">
+        <v>0.05610109831010687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.39791840694383</v>
-      </c>
-      <c r="H5">
-        <v>2.39791840694383</v>
-      </c>
-      <c r="I5">
-        <v>0.2117921331255275</v>
-      </c>
-      <c r="J5">
-        <v>0.2117921331255275</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.49414631704546</v>
-      </c>
-      <c r="N5">
-        <v>1.49414631704546</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>3.58284095631064</v>
-      </c>
-      <c r="R5">
-        <v>3.58284095631064</v>
-      </c>
-      <c r="S5">
-        <v>0.2117921331255275</v>
-      </c>
-      <c r="T5">
-        <v>0.2117921331255275</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.058683666666667</v>
+      </c>
+      <c r="H7">
+        <v>12.176051</v>
+      </c>
+      <c r="I7">
+        <v>0.2885676612136944</v>
+      </c>
+      <c r="J7">
+        <v>0.2885676612136945</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.800003666666667</v>
+      </c>
+      <c r="N7">
+        <v>5.400011</v>
+      </c>
+      <c r="O7">
+        <v>0.763539939278903</v>
+      </c>
+      <c r="P7">
+        <v>0.7635399392789031</v>
+      </c>
+      <c r="Q7">
+        <v>7.305645481840112</v>
+      </c>
+      <c r="R7">
+        <v>65.75080933656101</v>
+      </c>
+      <c r="S7">
+        <v>0.2203329345209593</v>
+      </c>
+      <c r="T7">
+        <v>0.2203329345209594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.463315</v>
+      </c>
+      <c r="H8">
+        <v>1.389945</v>
+      </c>
+      <c r="I8">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="J8">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09912533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.297376</v>
+      </c>
+      <c r="O8">
+        <v>0.04204777601064202</v>
+      </c>
+      <c r="P8">
+        <v>0.04204777601064202</v>
+      </c>
+      <c r="Q8">
+        <v>0.04592625381333333</v>
+      </c>
+      <c r="R8">
+        <v>0.41333628432</v>
+      </c>
+      <c r="S8">
+        <v>0.001385102288278214</v>
+      </c>
+      <c r="T8">
+        <v>0.001385102288278214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.463315</v>
+      </c>
+      <c r="H9">
+        <v>1.389945</v>
+      </c>
+      <c r="I9">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="J9">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4583163333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.374949</v>
+      </c>
+      <c r="O9">
+        <v>0.1944122847104549</v>
+      </c>
+      <c r="P9">
+        <v>0.1944122847104549</v>
+      </c>
+      <c r="Q9">
+        <v>0.2123448319783333</v>
+      </c>
+      <c r="R9">
+        <v>1.911103487805</v>
+      </c>
+      <c r="S9">
+        <v>0.006404165118119288</v>
+      </c>
+      <c r="T9">
+        <v>0.006404165118119289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.463315</v>
+      </c>
+      <c r="H10">
+        <v>1.389945</v>
+      </c>
+      <c r="I10">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="J10">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.800003666666667</v>
+      </c>
+      <c r="N10">
+        <v>5.400011</v>
+      </c>
+      <c r="O10">
+        <v>0.763539939278903</v>
+      </c>
+      <c r="P10">
+        <v>0.7635399392789031</v>
+      </c>
+      <c r="Q10">
+        <v>0.8339686988216667</v>
+      </c>
+      <c r="R10">
+        <v>7.505718289395</v>
+      </c>
+      <c r="S10">
+        <v>0.02515188714902186</v>
+      </c>
+      <c r="T10">
+        <v>0.02515188714902186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.463241333333333</v>
+      </c>
+      <c r="H11">
+        <v>7.389724</v>
+      </c>
+      <c r="I11">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="J11">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09912533333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.297376</v>
+      </c>
+      <c r="O11">
+        <v>0.04204777601064202</v>
+      </c>
+      <c r="P11">
+        <v>0.04204777601064202</v>
+      </c>
+      <c r="Q11">
+        <v>0.2441696182471111</v>
+      </c>
+      <c r="R11">
+        <v>2.197526564224</v>
+      </c>
+      <c r="S11">
+        <v>0.007363977439498997</v>
+      </c>
+      <c r="T11">
+        <v>0.007363977439498997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.463241333333333</v>
+      </c>
+      <c r="H12">
+        <v>7.389724</v>
+      </c>
+      <c r="I12">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="J12">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.4583163333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.374949</v>
+      </c>
+      <c r="O12">
+        <v>0.1944122847104549</v>
+      </c>
+      <c r="P12">
+        <v>0.1944122847104549</v>
+      </c>
+      <c r="Q12">
+        <v>1.128943736008444</v>
+      </c>
+      <c r="R12">
+        <v>10.160493624076</v>
+      </c>
+      <c r="S12">
+        <v>0.03404811893515854</v>
+      </c>
+      <c r="T12">
+        <v>0.03404811893515854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.463241333333333</v>
+      </c>
+      <c r="H13">
+        <v>7.389724</v>
+      </c>
+      <c r="I13">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="J13">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.800003666666667</v>
+      </c>
+      <c r="N13">
+        <v>5.400011</v>
+      </c>
+      <c r="O13">
+        <v>0.763539939278903</v>
+      </c>
+      <c r="P13">
+        <v>0.7635399392789031</v>
+      </c>
+      <c r="Q13">
+        <v>4.433843431884889</v>
+      </c>
+      <c r="R13">
+        <v>39.904590886964</v>
+      </c>
+      <c r="S13">
+        <v>0.1337214811452384</v>
+      </c>
+      <c r="T13">
+        <v>0.1337214811452384</v>
       </c>
     </row>
   </sheetData>
